--- a/zam.xlsx
+++ b/zam.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Superb\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -57,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,6 +106,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -148,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +191,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +403,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +429,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44885</v>
+        <v>45007</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
